--- a/output/Tab_consolidado_estoques_Onco.xlsx
+++ b/output/Tab_consolidado_estoques_Onco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L385"/>
+  <dimension ref="A1:L389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5548,137 +5548,81 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ONCOPRODD</t>
+          <t>HOSPINOVA</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>02/25/2025</t>
+          <t>04/01/2025</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>163</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>48</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ONCOPRODD</t>
+          <t>HOSPINOVA</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>02/25/2025</t>
+          <t>04/01/2025</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>48</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>100</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
+        <v>25</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ONCOPRODD</t>
+          <t>HOSPINOVA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>02/25/2025</t>
+          <t>05/01/2025</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>64</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ONCOPRODD</t>
+          <t>HOSPINOVA</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>02/25/2025</t>
+          <t>05/01/2025</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>120</v>
-      </c>
-      <c r="I154" t="n">
-        <v>60</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -5694,20 +5638,20 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5728,24 +5672,24 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -5762,24 +5706,24 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -5800,20 +5744,20 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -5840,14 +5784,14 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -5864,17 +5808,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -5898,24 +5842,24 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -5932,11 +5876,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5945,11 +5889,11 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -5966,24 +5910,24 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -6004,20 +5948,20 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -6034,11 +5978,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -6072,20 +6016,20 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -6106,20 +6050,20 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -6140,20 +6084,20 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6118,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -6187,7 +6131,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -6204,20 +6148,20 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6238,11 +6182,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6255,7 +6199,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6272,24 +6216,24 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6306,24 +6250,24 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6340,11 +6284,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6374,11 +6318,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -6391,7 +6335,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6408,24 +6352,24 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6442,24 +6386,24 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6476,7 +6420,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -6510,11 +6454,11 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -6527,7 +6471,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6492,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -6561,7 +6505,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6522,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -6595,7 +6539,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6612,11 +6556,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -6629,7 +6573,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -6646,11 +6590,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -6663,7 +6607,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6680,11 +6624,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -6697,7 +6641,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6658,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -6731,7 +6675,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6748,11 +6692,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -6765,7 +6709,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -6782,11 +6726,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -6820,7 +6764,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -6833,7 +6777,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6794,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>7898029550292</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -6867,7 +6811,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -6888,20 +6832,20 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -6918,11 +6862,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -6935,7 +6879,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -6952,11 +6896,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -6986,7 +6930,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550292</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -7020,20 +6964,20 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7054,11 +6998,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -7088,7 +7032,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -7122,11 +7066,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -7156,7 +7100,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -7190,7 +7134,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -7203,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7224,7 +7168,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -7258,17 +7202,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -7292,11 +7236,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -7336,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7398,13 +7342,13 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>338</v>
+        <v>5</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -7428,11 +7372,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -7457,29 +7401,29 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>02/24/2025</t>
+          <t>02/25/2025</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7435,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>02/24/2025</t>
+          <t>02/25/2025</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7500,7 +7444,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -7513,7 +7457,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -7525,29 +7469,29 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>02/24/2025</t>
+          <t>02/25/2025</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -7559,16 +7503,16 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>02/24/2025</t>
+          <t>02/25/2025</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -7577,11 +7521,11 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -7598,20 +7542,20 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7632,24 +7576,24 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -7666,24 +7610,24 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -7700,24 +7644,24 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -7734,24 +7678,24 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -7768,20 +7712,20 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7802,24 +7746,24 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I217" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -7846,14 +7790,14 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -7874,20 +7818,20 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -7904,11 +7848,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -7921,7 +7865,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -7938,20 +7882,20 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7972,11 +7916,11 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -8006,24 +7950,24 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I223" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -8040,11 +7984,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -8057,7 +8001,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -8074,11 +8018,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7898029550292</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -8091,7 +8035,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -8112,7 +8056,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -8125,7 +8069,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -8146,20 +8090,20 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -8176,11 +8120,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -8193,7 +8137,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -8210,7 +8154,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550292</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -8227,7 +8171,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -8244,11 +8188,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -8257,11 +8201,11 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -8278,11 +8222,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -8312,7 +8256,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -8329,7 +8273,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8290,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -8363,7 +8307,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -8380,11 +8324,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -8393,11 +8337,11 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -8414,11 +8358,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -8431,7 +8375,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>ES</t>
         </is>
       </c>
     </row>
@@ -8448,11 +8392,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -8482,11 +8426,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -8495,11 +8439,11 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -8516,7 +8460,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -8533,7 +8477,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -8550,11 +8494,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -8567,7 +8511,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -8584,24 +8528,24 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PE</t>
         </is>
       </c>
     </row>
@@ -8618,20 +8562,20 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8652,7 +8596,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -8669,7 +8613,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -8686,11 +8630,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -8703,7 +8647,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -8720,24 +8664,24 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -8754,24 +8698,24 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8732,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -8839,7 +8783,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8800,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -8890,7 +8834,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -8924,7 +8868,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -8937,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8958,24 +8902,24 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
     </row>
@@ -8992,11 +8936,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -9026,11 +8970,11 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -9060,7 +9004,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -9073,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9094,17 +9038,17 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -9128,17 +9072,17 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -9162,11 +9106,11 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -9196,17 +9140,17 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>7898029556416</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -9230,17 +9174,17 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>3664898117515</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -9264,17 +9208,17 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>3664898118642</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -9298,17 +9242,17 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -9332,17 +9276,17 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029556416</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -9356,78 +9300,80 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>VIVEO</t>
+          <t>ONCOPRODD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>02/27/2025</t>
+          <t>02/24/2025</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>7898029550247</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>PRIVADO</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>MAFRA</t>
+          <t>3664898117515</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="G263" t="n">
         <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>VIVEO</t>
+          <t>ONCOPRODD</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>02/27/2025</t>
+          <t>02/24/2025</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>7898029550261</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>PRIVADO</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>MAFRA</t>
+          <t>3664898118642</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>VIVEO</t>
+          <t>ONCOPRODD</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>02/27/2025</t>
+          <t>02/24/2025</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9435,54 +9381,56 @@
           <t>7898029550285</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>PRIVADO</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>ARP MED</t>
-        </is>
-      </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>200</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>VIVEO</t>
+          <t>ONCOPRODD</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>02/27/2025</t>
+          <t>02/24/2025</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>7898029550285</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>PRIVADO</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>MAFRA</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="G266" t="n">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="H266" t="n">
+        <v>55</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -9498,7 +9446,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9512,7 +9460,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>705</v>
+        <v>9</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -9531,7 +9479,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9545,10 +9493,10 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269">
@@ -9564,7 +9512,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9574,11 +9522,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -9597,7 +9545,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9611,10 +9559,10 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>715</v>
+        <v>353</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271">
@@ -9630,7 +9578,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9644,7 +9592,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>181</v>
+        <v>705</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -9663,7 +9611,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9677,7 +9625,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -9696,7 +9644,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9710,7 +9658,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>719</v>
+        <v>151</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -9729,7 +9677,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -9743,7 +9691,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -9762,7 +9710,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9776,7 +9724,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -9795,7 +9743,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9809,7 +9757,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -9828,7 +9776,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>7898029558755</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -9842,7 +9790,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>117</v>
+        <v>719</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -9861,7 +9809,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029557123</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9875,7 +9823,7 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2382</v>
+        <v>755</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -9889,12 +9837,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/27/2025</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>7898029550247</t>
+          <t>7898029557154</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9908,16 +9856,11 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
       </c>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9927,12 +9870,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/27/2025</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029558595</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9946,16 +9889,11 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
       </c>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9965,12 +9903,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/27/2025</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558755</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9980,20 +9918,15 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ARP MED</t>
+          <t>MAFRA</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
       </c>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10003,12 +9936,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/27/2025</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558809</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -10022,16 +9955,11 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>403</v>
+        <v>2382</v>
       </c>
       <c r="G282" t="n">
         <v>0</v>
       </c>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10046,7 +9974,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>7898029551046</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -10060,7 +9988,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G283" t="n">
         <v>0</v>
@@ -10084,7 +10012,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -10098,10 +10026,10 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="G284" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -10122,7 +10050,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -10132,14 +10060,14 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -10160,7 +10088,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -10174,7 +10102,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>151</v>
+        <v>403</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -10198,7 +10126,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029551046</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -10212,10 +10140,10 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -10236,7 +10164,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -10250,10 +10178,10 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -10274,7 +10202,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -10288,10 +10216,10 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -10312,7 +10240,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -10326,10 +10254,10 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="G290" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -10350,7 +10278,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -10364,10 +10292,10 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G291" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -10388,7 +10316,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10402,10 +10330,10 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="G292" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -10426,7 +10354,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10440,10 +10368,10 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G293" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -10464,7 +10392,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>7898029558755</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10478,10 +10406,10 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="G294" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -10502,7 +10430,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029557123</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10516,10 +10444,10 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="G295" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -10540,7 +10468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>7898029558816</t>
+          <t>7898029557154</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -10554,10 +10482,10 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
@@ -10573,12 +10501,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>7898029550247</t>
+          <t>7898029558595</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -10592,10 +10520,10 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G297" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -10611,12 +10539,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029558755</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10630,10 +10558,10 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G298" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -10649,12 +10577,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558809</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10664,14 +10592,14 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>ARP MED</t>
+          <t>MAFRA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -10687,12 +10615,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558816</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10706,7 +10634,7 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>341</v>
+        <v>2</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
@@ -10730,7 +10658,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>7898029551046</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -10744,7 +10672,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>
@@ -10768,7 +10696,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -10782,10 +10710,10 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>996</v>
+        <v>169</v>
       </c>
       <c r="G302" t="n">
-        <v>509</v>
+        <v>50</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -10806,7 +10734,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10816,14 +10744,14 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
@@ -10844,7 +10772,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -10858,7 +10786,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
@@ -10882,7 +10810,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029551046</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -10896,10 +10824,10 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>648</v>
+        <v>2</v>
       </c>
       <c r="G305" t="n">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -10920,7 +10848,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -10934,10 +10862,10 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>181</v>
+        <v>996</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
@@ -10958,7 +10886,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -10972,10 +10900,10 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -10996,7 +10924,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -11010,10 +10938,10 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="G308" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -11034,7 +10962,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -11048,10 +10976,10 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="G309" t="n">
-        <v>294</v>
+        <v>554</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -11072,7 +11000,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -11086,10 +11014,10 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="G310" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
@@ -11110,7 +11038,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -11124,10 +11052,10 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G311" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
@@ -11148,7 +11076,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>7898029558755</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -11162,10 +11090,10 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="G312" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -11186,7 +11114,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029557123</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -11200,10 +11128,10 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>731</v>
+        <v>632</v>
       </c>
       <c r="G313" t="n">
-        <v>1782</v>
+        <v>294</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -11219,12 +11147,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>02/21/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>7898029550247</t>
+          <t>7898029557154</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -11238,10 +11166,10 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
@@ -11257,12 +11185,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>02/21/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029558595</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -11276,10 +11204,10 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="G315" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
@@ -11295,12 +11223,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>02/21/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558755</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -11310,11 +11238,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>ARP MED</t>
+          <t>MAFRA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="G316" t="n">
         <v>0</v>
@@ -11333,12 +11261,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>02/21/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558809</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -11352,10 +11280,10 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>418</v>
+        <v>731</v>
       </c>
       <c r="G317" t="n">
-        <v>125</v>
+        <v>1782</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -11376,7 +11304,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -11390,7 +11318,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>716</v>
+        <v>9</v>
       </c>
       <c r="G318" t="n">
         <v>0</v>
@@ -11414,7 +11342,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -11428,10 +11356,10 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -11452,7 +11380,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -11462,11 +11390,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -11490,7 +11418,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -11504,10 +11432,10 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>769</v>
+        <v>418</v>
       </c>
       <c r="G321" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -11528,7 +11456,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -11542,7 +11470,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>181</v>
+        <v>716</v>
       </c>
       <c r="G322" t="n">
         <v>0</v>
@@ -11566,7 +11494,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -11580,7 +11508,7 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
@@ -11604,7 +11532,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -11618,7 +11546,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>721</v>
+        <v>151</v>
       </c>
       <c r="G324" t="n">
         <v>0</v>
@@ -11642,7 +11570,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -11656,7 +11584,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="G325" t="n">
         <v>0</v>
@@ -11680,7 +11608,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -11694,7 +11622,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="G326" t="n">
         <v>0</v>
@@ -11718,7 +11646,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -11732,7 +11660,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="G327" t="n">
         <v>0</v>
@@ -11756,7 +11684,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>7898029558755</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -11770,7 +11698,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>128</v>
+        <v>721</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
@@ -11794,7 +11722,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029557123</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -11808,7 +11736,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2412</v>
+        <v>763</v>
       </c>
       <c r="G329" t="n">
         <v>0</v>
@@ -11827,12 +11755,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>02/21/2025</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029557154</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -11846,7 +11774,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="G330" t="n">
         <v>0</v>
@@ -11865,12 +11793,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>02/21/2025</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558595</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -11880,11 +11808,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>ARP MED</t>
+          <t>MAFRA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G331" t="n">
         <v>0</v>
@@ -11903,12 +11831,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>02/21/2025</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558755</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -11922,7 +11850,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -11941,12 +11869,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>02/21/2025</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>7898029550247</t>
+          <t>7898029558809</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -11960,7 +11888,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>9</v>
+        <v>2412</v>
       </c>
       <c r="G333" t="n">
         <v>0</v>
@@ -11979,7 +11907,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>03/03/2025</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11998,10 +11926,10 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="G334" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -12017,7 +11945,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>03/03/2025</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12055,7 +11983,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>03/03/2025</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12074,7 +12002,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>212</v>
+        <v>425</v>
       </c>
       <c r="G336" t="n">
         <v>0</v>
@@ -12098,7 +12026,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>7898029551046</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -12112,7 +12040,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G337" t="n">
         <v>0</v>
@@ -12136,7 +12064,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>7898029551244</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -12150,10 +12078,10 @@
         </is>
       </c>
       <c r="F338" t="n">
+        <v>265</v>
+      </c>
+      <c r="G338" t="n">
         <v>4</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -12174,7 +12102,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -12184,14 +12112,14 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="G339" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -12212,7 +12140,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -12226,7 +12154,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="G340" t="n">
         <v>0</v>
@@ -12250,7 +12178,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029551046</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -12264,7 +12192,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
@@ -12288,7 +12216,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029551244</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -12302,7 +12230,7 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G342" t="n">
         <v>0</v>
@@ -12326,7 +12254,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -12340,10 +12268,10 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -12364,7 +12292,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -12378,7 +12306,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -12402,7 +12330,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -12416,10 +12344,10 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G345" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -12440,7 +12368,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -12454,7 +12382,7 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="G346" t="n">
         <v>0</v>
@@ -12478,7 +12406,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -12492,7 +12420,7 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G347" t="n">
         <v>0</v>
@@ -12516,7 +12444,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -12530,7 +12458,7 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>
@@ -12554,7 +12482,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>7898029558755</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -12568,10 +12496,10 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -12592,7 +12520,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029557123</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -12606,10 +12534,10 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="G350" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -12630,7 +12558,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>7898029558816</t>
+          <t>7898029557154</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -12644,7 +12572,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G351" t="n">
         <v>0</v>
@@ -12663,12 +12591,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>7898029550247</t>
+          <t>7898029558595</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -12682,7 +12610,7 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G352" t="n">
         <v>0</v>
@@ -12701,12 +12629,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029558755</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -12720,7 +12648,7 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
@@ -12739,12 +12667,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558809</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -12754,14 +12682,14 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>ARP MED</t>
+          <t>MAFRA</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -12777,12 +12705,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558816</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -12796,10 +12724,10 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="G355" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -12820,7 +12748,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>7898029551046</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -12834,7 +12762,7 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
@@ -12858,7 +12786,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>7898029551244</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -12872,7 +12800,7 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>1</v>
+        <v>299</v>
       </c>
       <c r="G357" t="n">
         <v>0</v>
@@ -12896,7 +12824,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -12906,14 +12834,14 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="G358" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -12934,7 +12862,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -12948,10 +12876,10 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="G359" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -12972,7 +12900,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029551046</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -12986,7 +12914,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -13010,7 +12938,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029551244</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -13024,10 +12952,10 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G361" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
@@ -13048,7 +12976,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -13062,10 +12990,10 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -13086,7 +13014,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -13100,10 +13028,10 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -13124,7 +13052,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -13138,10 +13066,10 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G364" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
@@ -13162,7 +13090,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -13176,10 +13104,10 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G365" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
@@ -13200,7 +13128,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -13214,7 +13142,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
@@ -13238,7 +13166,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -13252,7 +13180,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
@@ -13276,7 +13204,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -13290,10 +13218,10 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -13309,12 +13237,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>7898029550247</t>
+          <t>7898029557123</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -13328,10 +13256,10 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -13347,12 +13275,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>7898029550261</t>
+          <t>7898029557154</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -13366,7 +13294,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
@@ -13385,12 +13313,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558595</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -13400,11 +13328,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ARP MED</t>
+          <t>MAFRA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
@@ -13423,12 +13351,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>7898029550285</t>
+          <t>7898029558809</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -13442,10 +13370,10 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -13466,7 +13394,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>7898029551046</t>
+          <t>7898029550247</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -13480,7 +13408,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -13504,7 +13432,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>7898029551244</t>
+          <t>7898029550261</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -13518,7 +13446,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
@@ -13542,7 +13470,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>7898029551770</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -13552,11 +13480,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MAFRA</t>
+          <t>ARP MED</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
@@ -13580,7 +13508,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>7898029551787</t>
+          <t>7898029550285</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -13594,7 +13522,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -13618,7 +13546,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>7898029551848</t>
+          <t>7898029551046</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -13632,7 +13560,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>
@@ -13656,7 +13584,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>7898029552128</t>
+          <t>7898029551244</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -13670,7 +13598,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G378" t="n">
         <v>0</v>
@@ -13694,7 +13622,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>7898029552203</t>
+          <t>7898029551770</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -13708,7 +13636,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -13732,7 +13660,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>7898029556539</t>
+          <t>7898029551787</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -13746,7 +13674,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -13770,7 +13698,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>7898029556829</t>
+          <t>7898029551848</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -13784,10 +13712,10 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G381" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
@@ -13808,7 +13736,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>7898029557123</t>
+          <t>7898029552128</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -13822,10 +13750,10 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="G382" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -13846,7 +13774,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>7898029557154</t>
+          <t>7898029552203</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -13860,7 +13788,7 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
@@ -13884,7 +13812,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>7898029558595</t>
+          <t>7898029556539</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -13898,7 +13826,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
@@ -13922,7 +13850,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>7898029558809</t>
+          <t>7898029556829</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -13936,10 +13864,10 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
@@ -13947,6 +13875,158 @@
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr"/>
     </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>VIVEO</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>12/02/2024</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>7898029557123</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>PRIVADO</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>MAFRA</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>104</v>
+      </c>
+      <c r="G386" t="n">
+        <v>4</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>VIVEO</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>12/02/2024</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>7898029557154</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>PRIVADO</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>MAFRA</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>5</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>VIVEO</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>12/02/2024</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>7898029558595</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>PRIVADO</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>MAFRA</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>2</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>VIVEO</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>12/02/2024</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>7898029558809</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>PRIVADO</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>MAFRA</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>176</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0</v>
+      </c>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
